--- a/api/Daftar Undangan.xlsx
+++ b/api/Daftar Undangan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arin" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t xml:space="preserve">Kode</t>
   </si>
@@ -135,7 +135,7 @@
     <t xml:space="preserve">AXM-0205</t>
   </si>
   <si>
-    <t xml:space="preserve">Vitraining Team</t>
+    <t xml:space="preserve">Vitraining team</t>
   </si>
   <si>
     <t xml:space="preserve">AXM-0206</t>
@@ -193,6 +193,99 @@
   </si>
   <si>
     <t xml:space="preserve">Majalengka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayu &amp; istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lutfi &amp; istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasikmalaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cicalengka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajeng &amp; Fajar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desih &amp; suami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susi &amp; suami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andi &amp; istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wibicon team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF Widyatama 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alumni MTS MIFA 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tria &amp; suami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bekasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumiati &amp; suami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuningan</t>
   </si>
   <si>
     <t xml:space="preserve">AXM-0401</t>
@@ -309,11 +402,11 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
@@ -435,13 +528,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
@@ -600,6 +693,149 @@
       </c>
       <c r="C14" s="0" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -624,7 +860,7 @@
       <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
@@ -644,7 +880,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/api/Daftar Undangan.xlsx
+++ b/api/Daftar Undangan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="199">
   <si>
     <t xml:space="preserve">Kode</t>
   </si>
@@ -286,6 +286,336 @@
   </si>
   <si>
     <t xml:space="preserve">Kuningan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yusuf dan Heni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahmat dan istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cici Novianti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candra dan istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cikarang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rega dan Nurul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chirul Arifin dan istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ega Kamaludin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retno dan suami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdurrahmannesa dan istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agus Salim dan istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joko dan istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fauzan dan istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isti Novianti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firman dan istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agus Suwerdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leni Aprianti dan Suami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evi dan suami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilfan Setiawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cianjur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tirtowanto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cecep dan istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaka Bilal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lani Nur'aeni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nia dan suami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asep Rijaludin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yusuf dan Anis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deni Awaludin dan istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sansan Sobirin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syukron dan istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redi Kusmayadi dan istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rizal Adiguna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Husen Saeful Rahman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mimin dan istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reza Adi Wibowo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tri Azidin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dindin dan istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dela Julianti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rijal dan Hesti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya Nugraha dan istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arif dan istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krizki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Salafudin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reza Recsamulia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setiaji dan istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aa Cahyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heru Hermawan dan istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djoyo dan istri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXM-0280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stevan dan istri</t>
   </si>
   <si>
     <t xml:space="preserve">AXM-0401</t>
@@ -406,7 +736,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
@@ -528,13 +858,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
@@ -836,6 +1166,600 @@
       </c>
       <c r="C27" s="0" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -860,7 +1784,7 @@
       <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
@@ -880,7 +1804,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/api/Daftar Undangan.xlsx
+++ b/api/Daftar Undangan.xlsx
@@ -177,7 +177,7 @@
     <t xml:space="preserve">AXM-0211</t>
   </si>
   <si>
-    <t xml:space="preserve">Cara &amp; Amadea</t>
+    <t xml:space="preserve">Caca &amp; Amadea</t>
   </si>
   <si>
     <t xml:space="preserve">AXM-0212</t>
@@ -736,7 +736,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
@@ -861,10 +861,10 @@
   <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
@@ -1784,7 +1784,7 @@
       <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>

--- a/api/Daftar Undangan.xlsx
+++ b/api/Daftar Undangan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{6A8EEFCE-E79F-3241-B844-0EC65402DDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{4620A320-00AB-6A41-99ED-65E292AE1BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1119,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>

--- a/api/Daftar Undangan.xlsx
+++ b/api/Daftar Undangan.xlsx
@@ -336,7 +336,7 @@
     <t xml:space="preserve">AXM-0234</t>
   </si>
   <si>
-    <t xml:space="preserve">Chirul Arifin dan istri</t>
+    <t xml:space="preserve">Choirul Arifin dan istri</t>
   </si>
   <si>
     <t xml:space="preserve">AXM-0235</t>
@@ -745,7 +745,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.72"/>
@@ -869,11 +869,11 @@
   </sheetPr>
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.72"/>
@@ -1804,7 +1804,7 @@
       <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.72"/>

--- a/api/Daftar Undangan.xlsx
+++ b/api/Daftar Undangan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Arin" sheetId="1" state="visible" r:id="rId2"/>
@@ -759,7 +759,7 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -887,7 +887,7 @@
   </sheetPr>
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85"/>
     </sheetView>
   </sheetViews>
